--- a/Documentos/Detalles Desarrollo.xlsx
+++ b/Documentos/Detalles Desarrollo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavier/Documents/Develop/Trapitos/Trapitos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xavier/Documents/Develop/trapitos/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado Finales" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="257">
   <si>
     <t>TIPO ING.</t>
   </si>
@@ -243,9 +243,6 @@
   </si>
   <si>
     <t>RIB Utilizados</t>
-  </si>
-  <si>
-    <t>Relacional Uno o mas modelo RIBS</t>
   </si>
   <si>
     <t>Costo RIB</t>
@@ -633,9 +630,6 @@
     <t>Insidencia de la mano de obra directa (M. Obra) TABLA: ManoObraDirecta</t>
   </si>
   <si>
-    <t>Tiempo de produccion en minutos por prenda - TABLA: TiempoProdPrenda</t>
-  </si>
-  <si>
     <t>Costo Materia Prima Indirecta (REND.M.P.I.) - TABLA: CostoMateriaIndirecta</t>
   </si>
   <si>
@@ -643,6 +637,168 @@
   </si>
   <si>
     <t>Sistema Costos Trapitos (COSTOS) - TABLAS: ProformaCab, ProformaDet</t>
+  </si>
+  <si>
+    <t>Nombre Material Extra</t>
+  </si>
+  <si>
+    <t>Texto</t>
+  </si>
+  <si>
+    <t>Ancho</t>
+  </si>
+  <si>
+    <t>Largo</t>
+  </si>
+  <si>
+    <t>Scrap</t>
+  </si>
+  <si>
+    <t>Total Ancho</t>
+  </si>
+  <si>
+    <t>Ancho Tela</t>
+  </si>
+  <si>
+    <t>Extraida del Modelo Tela</t>
+  </si>
+  <si>
+    <t>Piezas por ancho</t>
+  </si>
+  <si>
+    <t>División (Ancho Tela / Total Ancho)</t>
+  </si>
+  <si>
+    <t>Suma (Largo + Scrap)</t>
+  </si>
+  <si>
+    <t>Multiplicación (Ancho * 2)</t>
+  </si>
+  <si>
+    <t>Inmediato Inferior (Piezas por Ancho)</t>
+  </si>
+  <si>
+    <t>Cantidad tela extra</t>
+  </si>
+  <si>
+    <t>Multiplicacion (Inmediato Superior (1/Numero Piezas Reales) * Total Largo)</t>
+  </si>
+  <si>
+    <t>Multiplicar (Cantidad Tela Extra * Costo con IVA Tela)</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Extra (REND. M.P.E)</t>
+  </si>
+  <si>
+    <t>Relacional Uno o mas modelo REND M.P.E</t>
+  </si>
+  <si>
+    <t>Costo Metro Tela Extra</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Extra</t>
+  </si>
+  <si>
+    <t>Division ((Largo Extra * Costo Metro Tela)/Numero Piezas Reales)</t>
+  </si>
+  <si>
+    <t>Número Piezas Reales</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Forro (M.P.D. FORROS)</t>
+  </si>
+  <si>
+    <t>Nombre Material Forro  (Tela)</t>
+  </si>
+  <si>
+    <t>Largo de frente</t>
+  </si>
+  <si>
+    <t>Largo de espalda</t>
+  </si>
+  <si>
+    <t>Ancho de espalda</t>
+  </si>
+  <si>
+    <t>Ancho de frente</t>
+  </si>
+  <si>
+    <t>Largo de manga</t>
+  </si>
+  <si>
+    <t>Ancho de manga</t>
+  </si>
+  <si>
+    <t>Largo Total</t>
+  </si>
+  <si>
+    <t>Largo manga extra</t>
+  </si>
+  <si>
+    <t>Suma(Largo Frente + Largo de manga + SCRAP + Largo manga extra)</t>
+  </si>
+  <si>
+    <t>Suma(Acho frente + Ancho espalda)</t>
+  </si>
+  <si>
+    <t>Extraida de tela</t>
+  </si>
+  <si>
+    <t>División( Ancho tela / Ancho Total)</t>
+  </si>
+  <si>
+    <t>Piezas reales</t>
+  </si>
+  <si>
+    <t>Inmediato Inferior (Piezas por ancho)</t>
+  </si>
+  <si>
+    <t>Multiplicar ( Redondear (1/Numero de piezas reales) * Total Largo</t>
+  </si>
+  <si>
+    <t>Costo por metros de tela</t>
+  </si>
+  <si>
+    <t>Costo tela en cuerpo</t>
+  </si>
+  <si>
+    <t>División((Largo Total * Costo por metros de tela)/ Piezas reales)</t>
+  </si>
+  <si>
+    <t>Costo en tela extra</t>
+  </si>
+  <si>
+    <t>Multiplicacion (Costo metro tela * Cantidad metro tela)</t>
+  </si>
+  <si>
+    <t>RIB utilizado</t>
+  </si>
+  <si>
+    <t>Extraido de tabla extras</t>
+  </si>
+  <si>
+    <t>Total costo total tela</t>
+  </si>
+  <si>
+    <t>Suma ( Costo tela en cuerpo + Costo en tela extra + Costo RIB extras )</t>
+  </si>
+  <si>
+    <t>Costo RIB extras</t>
+  </si>
+  <si>
+    <t>Total tela en prenda</t>
+  </si>
+  <si>
+    <t>Cantidad Tela utilizada</t>
+  </si>
+  <si>
+    <t>Suma ( Cantidad Tela utilizada + Cantidad tela extra)</t>
+  </si>
+  <si>
+    <t>Cantidad de Tela extra</t>
+  </si>
+  <si>
+    <t>Tiempo de produccion en minutos por prenda  (M. OBRA) - TABLA: TiempoProdPrenda</t>
   </si>
 </sst>
 </file>
@@ -704,7 +860,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -712,13 +869,12 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,6 +947,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -804,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,6 +1000,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -841,30 +1013,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1153,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,12 +1338,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="A1" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1299,7 +1472,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1307,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -1321,28 +1494,28 @@
         <v>28</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>116</v>
+      <c r="E17" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1350,13 +1523,13 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -1364,13 +1537,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1378,13 +1551,13 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1392,7 +1565,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>13</v>
@@ -1403,7 +1576,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>13</v>
@@ -1414,13 +1587,13 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1434,7 +1607,7 @@
         <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1448,7 +1621,7 @@
         <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1462,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1652,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,12 +1663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1622,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1661,7 +1834,7 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -1732,35 +1905,35 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
         <v>77</v>
-      </c>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1774,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A23" zoomScale="96" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1788,12 +1961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1841,7 +2014,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -1852,7 +2025,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
@@ -1860,7 +2033,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -1868,7 +2041,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
         <v>50</v>
@@ -1876,7 +2049,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
@@ -1884,7 +2057,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
         <v>50</v>
@@ -1892,7 +2065,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
@@ -1900,7 +2073,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1909,7 +2082,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
@@ -1917,101 +2090,536 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>109</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>110</v>
-      </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A30" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A52" s="31" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>228</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59">
+        <v>2801572</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60">
+        <v>995570778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>255</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>253</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>242</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>243</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>245</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A52:D52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2019,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,36 +2641,39 @@
     <col min="4" max="4" width="119.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -2073,7 +2684,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -2084,7 +2695,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -2095,142 +2706,139 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="16"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="16"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
+      <c r="B25" t="s">
         <v>121</v>
       </c>
       <c r="C25" t="s">
@@ -2242,7 +2850,7 @@
         <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2255,7 +2863,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -2270,8 +2878,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>127</v>
+      <c r="B30" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -2279,34 +2887,37 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
-        <v>12</v>
+      <c r="B34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2317,67 +2928,67 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
+        <v>13</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>142</v>
+      <c r="B42" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
@@ -2386,34 +2997,31 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D43" t="s">
-        <v>145</v>
-      </c>
+    <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>51</v>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,72 +3034,72 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
         <v>148</v>
       </c>
-      <c r="C49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" t="s">
-        <v>152</v>
-      </c>
+    </row>
+    <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="B58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>51</v>
+      <c r="B59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2499,7 +3107,7 @@
         <v>157</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2507,77 +3115,77 @@
         <v>158</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>160</v>
-      </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B68" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C68" t="s">
-        <v>14</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
+    </row>
+    <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A70" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
+      <c r="B71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>51</v>
+      <c r="B72" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" t="s">
         <v>155</v>
-      </c>
-      <c r="C73" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2585,7 +3193,7 @@
         <v>169</v>
       </c>
       <c r="C74" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2593,7 +3201,7 @@
         <v>170</v>
       </c>
       <c r="C75" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2601,7 +3209,7 @@
         <v>171</v>
       </c>
       <c r="C76" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2609,7 +3217,7 @@
         <v>172</v>
       </c>
       <c r="C77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,155 +3225,146 @@
         <v>173</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>174</v>
-      </c>
-      <c r="C79" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
-        <v>12</v>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>160</v>
+      <c r="B83" s="19" t="s">
+        <v>162</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B84" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" t="s">
-        <v>193</v>
-      </c>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A86" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
+      <c r="B87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B88" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>51</v>
+      <c r="B88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="C91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>174</v>
-      </c>
-      <c r="C95" t="s">
-        <v>156</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B98" s="1" t="s">
-        <v>12</v>
+      <c r="B98" t="s">
+        <v>159</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B99" t="s">
-        <v>160</v>
+      <c r="B99" s="23" t="s">
+        <v>191</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B100" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C100" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s">
-        <v>193</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A58:D58"/>
+  <mergeCells count="6">
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A57:D57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>

--- a/Documentos/Detalles Desarrollo.xlsx
+++ b/Documentos/Detalles Desarrollo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado Finales" sheetId="1" r:id="rId1"/>
@@ -687,9 +687,6 @@
     <t>Multiplicar (Cantidad Tela Extra * Costo con IVA Tela)</t>
   </si>
   <si>
-    <t>Costo Materia Prima Extra (REND. M.P.E)</t>
-  </si>
-  <si>
     <t>Relacional Uno o mas modelo REND M.P.E</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
     <t>Número Piezas Reales</t>
   </si>
   <si>
-    <t>Costo Materia Prima Forro (M.P.D. FORROS)</t>
-  </si>
-  <si>
     <t>Nombre Material Forro  (Tela)</t>
   </si>
   <si>
@@ -799,6 +793,12 @@
   </si>
   <si>
     <t>Tiempo de produccion en minutos por prenda  (M. OBRA) - TABLA: TiempoProdPrenda</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Extra (REND. M.P.E) - Tabla: MateriaExtra</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Forro (M.P.D. FORROS) Tabla: MateriaForros</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1004,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,8 +1021,12 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1031,12 +1037,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1338,12 +1338,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1663,12 +1663,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1949,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="96" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,12 +1961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -2183,12 +2183,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
+      <c r="A30" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -2306,7 +2306,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
@@ -2338,23 +2338,23 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
         <v>222</v>
       </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
+      <c r="A52" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
@@ -2369,7 +2369,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
         <v>233</v>
-      </c>
-      <c r="C68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
@@ -2502,7 +2502,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
@@ -2513,106 +2513,106 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B79" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
         <v>248</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s">
         <v>252</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-      <c r="D80" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2629,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
@@ -2642,12 +2642,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
+      <c r="A2" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -2811,12 +2811,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -2998,12 +2998,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -3068,12 +3068,12 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
@@ -3154,12 +3154,12 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+      <c r="A70" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
+      <c r="B70" s="34"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="34"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
@@ -3256,12 +3256,12 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">

--- a/Documentos/Detalles Desarrollo.xlsx
+++ b/Documentos/Detalles Desarrollo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado Finales" sheetId="1" r:id="rId1"/>
@@ -624,9 +624,6 @@
     <t>Costos Indirectos de Fabricacion (M. Obra) - TABLA: GastoIndFabricacion</t>
   </si>
   <si>
-    <t>Calculo del tiempo de trabajo en jornada normal (M. Obra) TABLA: TiempoTrabajoNormal</t>
-  </si>
-  <si>
     <t>Insidencia de la mano de obra directa (M. Obra) TABLA: ManoObraDirecta</t>
   </si>
   <si>
@@ -799,6 +796,9 @@
   </si>
   <si>
     <t>Costo Materia Prima Forro (M.P.D. FORROS) Tabla: MateriaForros</t>
+  </si>
+  <si>
+    <t>Calculo del tiempo de trabajo en jornada normal (M. Obra) TABLA: TiempoTrabajo</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1339,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1664,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1949,7 +1949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="96" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="96" workbookViewId="0">
       <selection activeCell="A52" sqref="A52:D52"/>
     </sheetView>
   </sheetViews>
@@ -1962,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C33" t="s">
         <v>203</v>
-      </c>
-      <c r="C33" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -2233,7 +2233,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -2262,13 +2262,13 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -2279,78 +2279,78 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>211</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
         <v>216</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
         <v>221</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -2461,7 +2461,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
@@ -2474,13 +2474,13 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
@@ -2491,128 +2491,128 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>236</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
         <v>237</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
         <v>241</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s">
         <v>243</v>
-      </c>
-      <c r="C76" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B79" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
         <v>247</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2629,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2643,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>

--- a/Documentos/Detalles Desarrollo.xlsx
+++ b/Documentos/Detalles Desarrollo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado Finales" sheetId="1" r:id="rId1"/>
@@ -759,9 +759,6 @@
     <t>Costo en tela extra</t>
   </si>
   <si>
-    <t>Multiplicacion (Costo metro tela * Cantidad metro tela)</t>
-  </si>
-  <si>
     <t>RIB utilizado</t>
   </si>
   <si>
@@ -799,6 +796,9 @@
   </si>
   <si>
     <t>Calculo del tiempo de trabajo en jornada normal (M. Obra) TABLA: TiempoTrabajo</t>
+  </si>
+  <si>
+    <t>Multiplicacion (Costo metro tela * Cantidad de Tela extra)</t>
   </si>
 </sst>
 </file>
@@ -1947,10 +1947,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="96" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:D52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="96" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -2459,20 +2459,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F67">
+        <v>100</v>
+      </c>
+      <c r="H67">
+        <f>+F67*12</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
         <v>230</v>
       </c>
@@ -2482,8 +2489,11 @@
       <c r="D68" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="F68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
         <v>59</v>
       </c>
@@ -2494,7 +2504,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>208</v>
       </c>
@@ -2505,7 +2515,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>210</v>
       </c>
@@ -2516,7 +2526,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>236</v>
       </c>
@@ -2527,9 +2537,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2538,7 +2548,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>239</v>
       </c>
@@ -2549,7 +2559,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>240</v>
       </c>
@@ -2560,7 +2570,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>242</v>
       </c>
@@ -2568,51 +2578,51 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>244</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="28" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="28" t="s">
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
         <v>246</v>
       </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2629,8 +2639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2643,7 +2653,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -2999,7 +3009,7 @@
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>

--- a/Documentos/Detalles Desarrollo.xlsx
+++ b/Documentos/Detalles Desarrollo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado Finales" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="276">
   <si>
     <t>TIPO ING.</t>
   </si>
@@ -417,15 +417,6 @@
     <t>Total Sueldo</t>
   </si>
   <si>
-    <t>Suma (Total Sueldo Fijo + Total Sueldo Variable)</t>
-  </si>
-  <si>
-    <t>Suma (Horas Extras + Premios)</t>
-  </si>
-  <si>
-    <t>Suma (Sueldo Fijo + IESS)</t>
-  </si>
-  <si>
     <t>Tasa</t>
   </si>
   <si>
@@ -435,9 +426,6 @@
     <t>Extradia de Modelo Calculo del tiempo de trabajo en jornada normal (M. Obra)</t>
   </si>
   <si>
-    <t>Division (Total Sueldo / Minutos Trabajados por persona al anio)</t>
-  </si>
-  <si>
     <t>Total Tasa</t>
   </si>
   <si>
@@ -558,9 +546,6 @@
     <t>Tasa de Gastos de Fabricacion</t>
   </si>
   <si>
-    <t>Suma (Gastos de aministacion + Gastos por operaciones + Mantenimientos + Otros Gastos + Egresos no operativos + Ventas 12 Meses)</t>
-  </si>
-  <si>
     <t>Costo de Gastos de Administracion</t>
   </si>
   <si>
@@ -615,9 +600,6 @@
     <t>Multiplicacion (Costo * Tasa de Gastos de Ventas)</t>
   </si>
   <si>
-    <t>Gastos de Ventas (M. Obra) - TABLA: Gasto Venta</t>
-  </si>
-  <si>
     <t>Gastos de Administracion (M. Obra) - TABLA: GastoAdmin</t>
   </si>
   <si>
@@ -789,16 +771,91 @@
     <t>Tiempo de produccion en minutos por prenda  (M. OBRA) - TABLA: TiempoProdPrenda</t>
   </si>
   <si>
-    <t>Costo Materia Prima Extra (REND. M.P.E) - Tabla: MateriaExtra</t>
-  </si>
-  <si>
-    <t>Costo Materia Prima Forro (M.P.D. FORROS) Tabla: MateriaForros</t>
-  </si>
-  <si>
     <t>Calculo del tiempo de trabajo en jornada normal (M. Obra) TABLA: TiempoTrabajo</t>
   </si>
   <si>
     <t>Multiplicacion (Costo metro tela * Cantidad de Tela extra)</t>
+  </si>
+  <si>
+    <t>Rendimientos y Costo Materia Prima Extra (REND. M.P.E.) - Tabla : MateriaPrimaExtra</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Forro (M.P.D. FORROS) - Tabla: MateriaForros</t>
+  </si>
+  <si>
+    <t>Nombre Materia Prima</t>
+  </si>
+  <si>
+    <t>Char</t>
+  </si>
+  <si>
+    <t>Relacional (Tabla Talla)</t>
+  </si>
+  <si>
+    <t>Relacional (Tabla Tela)</t>
+  </si>
+  <si>
+    <t>Largo Extra</t>
+  </si>
+  <si>
+    <t>Ancho Extra</t>
+  </si>
+  <si>
+    <t>Extraida de la tabla Tela</t>
+  </si>
+  <si>
+    <t>Costo Tela</t>
+  </si>
+  <si>
+    <t>Piezas Reales</t>
+  </si>
+  <si>
+    <t>Redondeo inmediato inferior (0,5 de presición)</t>
+  </si>
+  <si>
+    <t>Cantidad tela a utilizar</t>
+  </si>
+  <si>
+    <t>Division (Ancho Tela / Ancho Extra)</t>
+  </si>
+  <si>
+    <t>Suma (Largo Extra + Scrap)</t>
+  </si>
+  <si>
+    <t>Division ((Largo Extra * Costo Tela) / Piezas Reales)</t>
+  </si>
+  <si>
+    <t>Multiplicacion (Redondear inmediato superior entero (1 / Piezas Reales) * Largo total</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Extra (REND. M.P.E) - Tabla: MateriaPrimaExtra</t>
+  </si>
+  <si>
+    <t>Gastos de Ventas (M. Obra) - TABLA: GastoVenta</t>
+  </si>
+  <si>
+    <t>Suma (Gastos de aministacion + Gastos por operaciones + Mantenimientos + Otros Gastos + Egresos no operativos)</t>
+  </si>
+  <si>
+    <t>hr.employee</t>
+  </si>
+  <si>
+    <t>Minutos Producidos al año</t>
+  </si>
+  <si>
+    <t>Suma (Sueldo Fijo + IESS) hr.employe</t>
+  </si>
+  <si>
+    <t>Suma (Horas Extras + Premios) hr.employe</t>
+  </si>
+  <si>
+    <t>Suma (Total Sueldo Fijo + Total Sueldo Variable) hr.employe</t>
+  </si>
+  <si>
+    <t>Division (Total Sueldo / Minutos Trabajados por persona al anio) hr.employe</t>
   </si>
 </sst>
 </file>
@@ -874,7 +931,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -959,6 +1016,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -972,7 +1035,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1006,6 +1069,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,6 +1083,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1338,12 +1405,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1537,13 +1604,13 @@
         <v>29</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1551,7 +1618,7 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1565,7 +1632,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>13</v>
@@ -1576,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C22" s="22" t="s">
         <v>13</v>
@@ -1652,7 +1719,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1663,12 +1730,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
+      <c r="A1" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1795,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -1947,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="96" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView zoomScale="96" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1961,12 +2028,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="A1" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -2183,12 +2250,12 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -2203,10 +2270,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -2233,7 +2300,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2241,7 +2308,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2249,7 +2316,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -2262,13 +2329,13 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
         <v>207</v>
-      </c>
-      <c r="C42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -2279,82 +2346,82 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="A52" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
@@ -2369,7 +2436,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2391,7 +2458,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -2399,7 +2466,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -2407,7 +2474,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -2418,7 +2485,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -2429,7 +2496,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -2437,7 +2504,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -2453,7 +2520,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -2461,7 +2528,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
@@ -2481,13 +2548,13 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="F68">
         <v>12</v>
@@ -2501,135 +2568,308 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="28" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>250</v>
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="A83" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>256</v>
+      </c>
+      <c r="C91" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>204</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>259</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>100</v>
+      </c>
+      <c r="J98">
+        <f>+G98*H99</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>265</v>
+      </c>
+      <c r="G99" t="s">
+        <v>266</v>
+      </c>
+      <c r="H99">
+        <v>12</v>
+      </c>
+      <c r="J99">
+        <f>+J98/H98</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B100" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A83:D83"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2639,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2652,12 +2892,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
+      <c r="A2" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -2703,14 +2943,14 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2752,68 +2992,68 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" s="16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" s="21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2821,12 +3061,12 @@
       <c r="D20" s="8"/>
     </row>
     <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="A22" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -2846,6 +3086,9 @@
       <c r="C24" t="s">
         <v>65</v>
       </c>
+      <c r="D24" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -2854,6 +3097,9 @@
       <c r="C25" t="s">
         <v>65</v>
       </c>
+      <c r="D25" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
@@ -2862,6 +3108,9 @@
       <c r="C26" t="s">
         <v>50</v>
       </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
@@ -2870,6 +3119,9 @@
       <c r="C27" t="s">
         <v>50</v>
       </c>
+      <c r="D27" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
@@ -2878,6 +3130,9 @@
       <c r="C28" t="s">
         <v>50</v>
       </c>
+      <c r="D28" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
@@ -2886,10 +3141,13 @@
       <c r="C29" t="s">
         <v>50</v>
       </c>
+      <c r="D29" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
@@ -2897,10 +3155,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2916,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2927,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>130</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2938,62 +3199,62 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3004,16 +3265,16 @@
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="38" t="s">
-        <v>255</v>
-      </c>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+      <c r="A45" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -3028,7 +3289,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -3036,7 +3297,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -3044,9 +3305,17 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>271</v>
+      </c>
+      <c r="C50" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3057,33 +3326,33 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A57" s="39" t="s">
-        <v>197</v>
-      </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="D57" s="39"/>
+      <c r="A57" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
@@ -3098,42 +3367,42 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,33 +3412,33 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B67" s="17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A70" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
+      <c r="A70" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
@@ -3184,58 +3453,58 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3245,33 +3514,33 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B83" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A86" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
+      <c r="A86" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
@@ -3286,58 +3555,58 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
@@ -3347,24 +3616,24 @@
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="23" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Documentos/Detalles Desarrollo.xlsx
+++ b/Documentos/Detalles Desarrollo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resultado Finales" sheetId="1" r:id="rId1"/>
@@ -612,9 +612,6 @@
     <t>Costo Materia Prima Indirecta (REND.M.P.I.) - TABLA: CostoMateriaIndirecta</t>
   </si>
   <si>
-    <t>Costo Materia Prima Directa (REND.M.P.D) - TABLA: CostoMateriaDirecta</t>
-  </si>
-  <si>
     <t>Sistema Costos Trapitos (COSTOS) - TABLAS: ProformaCab, ProformaDet</t>
   </si>
   <si>
@@ -856,6 +853,9 @@
   </si>
   <si>
     <t>Division (Total Sueldo / Minutos Trabajados por persona al anio) hr.employe</t>
+  </si>
+  <si>
+    <t>Costo Materia Prima Directa (REND.M.P.D) - TABLA: MateriaDirecta</t>
   </si>
 </sst>
 </file>
@@ -1406,7 +1406,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1731,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
-        <v>194</v>
+        <v>275</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -2017,7 +2017,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView zoomScale="96" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="30" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -2270,10 +2270,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" t="s">
         <v>196</v>
-      </c>
-      <c r="C33" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
@@ -2300,7 +2300,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" t="s">
         <v>50</v>
@@ -2329,13 +2329,13 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -2346,78 +2346,78 @@
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
         <v>204</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
+        <v>208</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" t="s">
         <v>209</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
         <v>214</v>
-      </c>
-      <c r="C49" t="s">
-        <v>14</v>
-      </c>
-      <c r="D49" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B52" s="34"/>
       <c r="C52" s="34"/>
@@ -2436,7 +2436,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -2458,7 +2458,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68">
         <v>12</v>
@@ -2568,133 +2568,133 @@
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
         <v>230</v>
-      </c>
-      <c r="C72" t="s">
-        <v>14</v>
-      </c>
-      <c r="D72" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s">
         <v>234</v>
-      </c>
-      <c r="C75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
         <v>239</v>
-      </c>
-      <c r="C79" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -2713,10 +2713,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C86" t="s">
         <v>251</v>
-      </c>
-      <c r="C86" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2727,7 +2727,7 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2738,34 +2738,34 @@
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C89" t="s">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C90" t="s">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C91" t="s">
         <v>50</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" t="s">
         <v>50</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2791,35 +2791,35 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
+        <v>258</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
         <v>259</v>
-      </c>
-      <c r="C98" t="s">
-        <v>14</v>
-      </c>
-      <c r="D98" t="s">
-        <v>260</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -2834,16 +2834,16 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
       </c>
       <c r="D99" t="s">
+        <v>264</v>
+      </c>
+      <c r="G99" t="s">
         <v>265</v>
-      </c>
-      <c r="G99" t="s">
-        <v>266</v>
       </c>
       <c r="H99">
         <v>12</v>
@@ -2855,13 +2855,13 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -2879,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2893,7 +2893,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="38"/>
@@ -3087,7 +3087,7 @@
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,7 +3098,7 @@
         <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3109,7 +3109,7 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3120,7 +3120,7 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3131,7 +3131,7 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3142,7 +3142,7 @@
         <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3161,7 +3161,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3188,7 +3188,7 @@
         <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3199,7 +3199,7 @@
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3221,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3270,7 +3270,7 @@
     </row>
     <row r="45" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A45" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -3520,7 +3520,7 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3536,7 +3536,7 @@
     </row>
     <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A86" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B86" s="37"/>
       <c r="C86" s="37"/>
